--- a/trunk/CASOS DE USO/CasosDeUso_V(2.1).xlsx
+++ b/trunk/CASOS DE USO/CasosDeUso_V(2.1).xlsx
@@ -1285,7 +1285,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1682,7 +1682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
